--- a/gcam-data-system/energy-data/assumptions/Tables_A32s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A32s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="A32.sector.csv" sheetId="5" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t># Industry default coefficients</t>
   </si>
   <si>
-    <t>H2 Enduse</t>
-  </si>
-  <si>
     <t># Industry default efficiencies</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>price.elasticity</t>
+  </si>
+  <si>
+    <t>H2 enduse</t>
   </si>
 </sst>
 </file>
@@ -4096,7 +4096,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4107,13 +4107,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4124,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>0.15</v>
@@ -4141,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>0.3</v>
@@ -4158,7 +4158,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>0.1</v>
@@ -4182,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4190,18 +4190,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5221,7 +5221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5234,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5617,7 +5619,7 @@
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -5658,7 +5660,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -6021,7 +6023,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6393,7 +6395,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6407,10 +6409,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6427,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6444,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6461,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/gcam-data-system/energy-data/assumptions/Tables_A32s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A32s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A32.sector.csv" sheetId="5" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="A32.globaltech_eff.csv" sheetId="22" r:id="rId6"/>
     <sheet name="A32.globaltech_coef.csv" sheetId="68" r:id="rId7"/>
     <sheet name="A32.globaltech_shrwt.csv" sheetId="23" r:id="rId8"/>
-    <sheet name="A32.nonenergy_Cseq.csv" sheetId="70" r:id="rId9"/>
-    <sheet name="A32.fuelprefElasticity.csv" sheetId="71" r:id="rId10"/>
-    <sheet name="A32.demand" sheetId="72" r:id="rId11"/>
+    <sheet name="A32.globaltech_interp.csv" sheetId="73" r:id="rId9"/>
+    <sheet name="A32.nonenergy_Cseq.csv" sheetId="70" r:id="rId10"/>
+    <sheet name="A32.fuelprefElasticity.csv" sheetId="71" r:id="rId11"/>
+    <sheet name="A32.demand" sheetId="72" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="71">
   <si>
     <t>technology</t>
   </si>
@@ -236,6 +237,12 @@
   </si>
   <si>
     <t>H2 enduse</t>
+  </si>
+  <si>
+    <t>final.energy</t>
+  </si>
+  <si>
+    <t># Industry technology interpolation functions</t>
   </si>
 </sst>
 </file>
@@ -287,8 +294,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1681">
+  <cellStyleXfs count="1719">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1975,7 +2020,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1681">
+  <cellStyles count="1719">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2816,6 +2861,25 @@
     <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3656,6 +3720,25 @@
     <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3985,10 +4068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4000,12 +4083,12 @@
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4021,8 +4104,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4038,8 +4124,11 @@
       <c r="E3">
         <v>-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4055,8 +4144,11 @@
       <c r="E4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4088,15 +4180,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4107,64 +4205,64 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0.15</v>
-      </c>
-      <c r="E3">
-        <v>-0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>-0.4</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4179,6 +4277,100 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4393,7 +4585,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4401,7 +4593,7 @@
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,11 +4682,11 @@
       <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
+      <c r="D7">
+        <v>2020</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4505,7 +4697,7 @@
         <v>45</v>
       </c>
       <c r="C8">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4610,7 +4802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4761,8 +4955,8 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
+      <c r="D8">
+        <v>2020</v>
       </c>
       <c r="E8">
         <v>2050</v>
@@ -5221,7 +5415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -6005,10 +6199,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6021,12 +6215,12 @@
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6043,10 +6237,16 @@
         <v>2010</v>
       </c>
       <c r="F2">
+        <v>2019</v>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+      <c r="H2">
         <v>2100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -6065,8 +6265,14 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -6077,16 +6283,22 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -6105,8 +6317,14 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -6123,10 +6341,16 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6145,8 +6369,14 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -6165,8 +6395,14 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -6185,8 +6421,14 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -6203,10 +6445,16 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -6217,16 +6465,22 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6237,16 +6491,22 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -6265,8 +6525,14 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -6283,10 +6549,16 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -6305,8 +6577,14 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -6325,8 +6603,14 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -6345,8 +6629,14 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -6363,6 +6653,12 @@
         <v>1</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
@@ -6379,26 +6675,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6409,61 +6708,200 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
